--- a/Mu2.xlsx
+++ b/Mu2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programiki\FridayRem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programiki\FridayRem\FridayRem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C60E9DB-EBE8-4FEC-9D18-6419CFD39703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D945246-004E-4EEB-9207-6CC25C289B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Server</t>
   </si>
@@ -85,6 +85,27 @@
   </si>
   <si>
     <t>VEKTOR</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>może</t>
+  </si>
+  <si>
+    <t>albo</t>
+  </si>
+  <si>
+    <t>kurde</t>
+  </si>
+  <si>
+    <t>wiem</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -411,7 +432,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +461,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -450,6 +474,9 @@
       </c>
       <c r="C3" t="s">
         <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -462,6 +489,9 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -472,6 +502,9 @@
       </c>
       <c r="C5" t="s">
         <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,6 +517,9 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -495,6 +531,9 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -506,6 +545,9 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -516,6 +558,9 @@
       </c>
       <c r="C9" t="s">
         <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/Mu2.xlsx
+++ b/Mu2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programiki\FridayRem\FridayRem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D945246-004E-4EEB-9207-6CC25C289B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F41D86-712A-4EDC-9913-0E982D8E2FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="4185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Server</t>
   </si>
@@ -106,13 +106,28 @@
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>125.22.33</t>
+  </si>
+  <si>
+    <t>jeden</t>
+  </si>
+  <si>
+    <t>dwa</t>
+  </si>
+  <si>
+    <t>trzy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +140,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFCE566"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,8 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +475,11 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -464,8 +492,11 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -479,7 +510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -492,8 +523,11 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -507,7 +541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -521,7 +555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -534,8 +568,11 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -549,7 +586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -562,8 +599,11 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -577,7 +617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -591,7 +631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -603,10 +643,96 @@
       </c>
       <c r="D12" t="s">
         <v>19</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>